--- a/Projekt/Højtalerdimensioner.xlsx
+++ b/Projekt/Højtalerdimensioner.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="B3:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +519,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E9" si="0">C7+$F$3*2</f>
+        <f t="shared" ref="E7:E8" si="0">C7+$F$3*2</f>
         <v>270</v>
       </c>
       <c r="F7" t="s">
@@ -609,10 +609,17 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>18</v>
+      </c>
+      <c r="C19">
+        <f>(5/2)^2*PI()</f>
+        <v>19.634954084936208</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt/Højtalerdimensioner.xlsx
+++ b/Projekt/Højtalerdimensioner.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Vas</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>Tværsnitsareal Sp</t>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>lang rør</t>
+  </si>
+  <si>
+    <t>mellem</t>
+  </si>
+  <si>
+    <t>kort</t>
   </si>
 </sst>
 </file>
@@ -435,7 +450,7 @@
   <dimension ref="B3:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,25 +602,56 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+    </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -613,7 +659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>18</v>
       </c>
